--- a/biology/Histoire de la zoologie et de la botanique/John_Sibthorp/John_Sibthorp.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Sibthorp/John_Sibthorp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Sibthorp est un botaniste anglais né le 28 octobre 1758 à Oxford et mort en 1796 à Bath. Professeur de botanique à l'université d'Oxford, il s'intéresse beaucoup à la flore méditerranéenne et commence à rédiger la Flora Graeca, inventaire richement illustré de la flore de Grèce, qui sera publiée de manière posthume en dix volumes entre 1806 et 1840.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le plus jeune fils d'Humphrey Sibthorp (1713–1797) qui, de 1747 à 1784 est professeur de botanique à l'université d'Oxford. Il commence ses études à Oxford, puis à partir de 1777, étudie la médecine à l'université d'Édimbourg et à la Faculté de Médecine de Montpellier. En 1784, il succède à son père à Oxford.
 Désireux de retrouver toutes les plantes décrites par Dioscoride, il a effectué deux voyages d'études en Grèce, à Chypre et en Asie Mineure (1786-1787 et 1794-1795), accompagné par le dessinateur autrichien Ferdinand Bauer, lors de l'ambassade de Robert Liston.
